--- a/DiscreteMath/Рейтинг.xlsx
+++ b/DiscreteMath/Рейтинг.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">ФИО</t>
   </si>
@@ -28,6 +28,18 @@
     <t xml:space="preserve">КР1</t>
   </si>
   <si>
+    <t xml:space="preserve">КР2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Доп оценка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Баллы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raiting</t>
+  </si>
+  <si>
     <t xml:space="preserve">Востряков </t>
   </si>
   <si>
@@ -59,6 +71,12 @@
   </si>
   <si>
     <t xml:space="preserve">Скопич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Миронов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Горина</t>
   </si>
 </sst>
 </file>
@@ -73,6 +91,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -154,10 +173,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -172,93 +191,224 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="C2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <f aca="false">AVERAGE(B2:C2)</f>
+        <v>3.5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <f aca="false">AVERAGE(B3:C3)</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <f aca="false">AVERAGE(B4:C4)</f>
         <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>3.5</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <f aca="false">AVERAGE(B5:C5)</f>
+        <v>3.75</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2.5</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <f aca="false">AVERAGE(B6:C6)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="C7" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <f aca="false">AVERAGE(B7:C7)</f>
+        <v>2.75</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2.5</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <f aca="false">AVERAGE(B8:C8)</f>
+        <v>2.25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <f aca="false">AVERAGE(B9:C9)</f>
         <v>3.5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>4.5</v>
       </c>
+      <c r="C10" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <f aca="false">AVERAGE(B10:C10)</f>
+        <v>4.5</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>3.5</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <f aca="false">AVERAGE(B11:C11)</f>
+        <v>3.75</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2.5</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <f aca="false">AVERAGE(B12:C12)</f>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <f aca="false">AVERAGE(B13:C13)</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <f aca="false">AVERAGE(B14:C14)</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/DiscreteMath/Рейтинг.xlsx
+++ b/DiscreteMath/Рейтинг.xlsx
@@ -176,7 +176,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -239,17 +239,14 @@
         <v>8</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>4</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0.5</v>
       </c>
       <c r="F4" s="0" t="n">
         <f aca="false">AVERAGE(B4:C4)</f>
-        <v>4</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -332,20 +329,17 @@
         <v>14</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E10" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="F10" s="0" t="n">
         <f aca="false">AVERAGE(B10:C10)</f>
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -353,17 +347,14 @@
         <v>15</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>4</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0.5</v>
       </c>
       <c r="F11" s="0" t="n">
         <f aca="false">AVERAGE(B11:C11)</f>
-        <v>3.75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
